--- a/www.eia.gov/forecasts/steo/xls/Fig17.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig17.xlsx
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>Consumption (billion cubic feet per day)</t>
@@ -53,7 +53,7 @@
     <t>Total consumption</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
   <si>
     <t>Total Consumption (bcf per day)</t>
@@ -342,13 +342,13 @@
                   <c:v>4.0202413159999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.113807689999998</c:v>
+                  <c:v>1.0886467939999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.2102017069999995</c:v>
+                  <c:v>-1.3470506469999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71623274000000237</c:v>
+                  <c:v>0.78627301399999894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -532,13 +532,13 @@
                   <c:v>-2.0419506849999962</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.0390593097000007</c:v>
+                  <c:v>-0.94984870790000286</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1502755152999988</c:v>
+                  <c:v>0.66563061520000133</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5324945499997966E-2</c:v>
+                  <c:v>0.33506768519999852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -722,13 +722,13 @@
                   <c:v>-0.3053397259999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38727145199999669</c:v>
+                  <c:v>0.35220074199999729</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12728882200000058</c:v>
+                  <c:v>0.16478892900000019</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41106942500000088</c:v>
+                  <c:v>0.50100912399999942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -909,13 +909,13 @@
                   <c:v>0.12209040999998422</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.1866603299979488E-2</c:v>
+                  <c:v>-6.4018623099983074E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23357368569999437</c:v>
+                  <c:v>0.11941027079998889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33088319050000337</c:v>
+                  <c:v>0.4164844308000113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -930,8 +930,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="560946192"/>
-        <c:axId val="560946752"/>
+        <c:axId val="592534880"/>
+        <c:axId val="592535440"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1148,43 +1148,43 @@
                   <c:v>83.488269318999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100.05019445000001</c:v>
+                  <c:v>99.946452519000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>91.789118311999999</c:v>
+                  <c:v>91.681842450000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>76.312709971000004</c:v>
+                  <c:v>76.219419647999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>69.78135657</c:v>
+                  <c:v>69.671423236999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>63.741155286999998</c:v>
+                  <c:v>63.641381094000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>66.953196297000005</c:v>
+                  <c:v>66.854529630000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>70.793401809000002</c:v>
+                  <c:v>70.643240517999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>71.567944132999997</c:v>
+                  <c:v>71.439169939999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>65.236754297000004</c:v>
+                  <c:v>65.039954296999994</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>62.220527742000002</c:v>
+                  <c:v>62.130269679999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>71.705821999999998</c:v>
+                  <c:v>72.063321729999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>90.951402999999999</c:v>
+                  <c:v>91.844715300000004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>#N/A</c:v>
+                  <c:v>93.137118299999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>#N/A</c:v>
@@ -1506,79 +1506,79 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>90.951402999999999</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>98.575339999999997</c:v>
+                  <c:v>93.137118299999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>94.373379999999997</c:v>
+                  <c:v>94.974149999999995</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>80.525949999999995</c:v>
+                  <c:v>80.661010000000005</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>68.941739999999996</c:v>
+                  <c:v>68.803929999999994</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>63.082230000000003</c:v>
+                  <c:v>62.862130000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>65.191239999999993</c:v>
+                  <c:v>64.960009999999997</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>68.243480000000005</c:v>
+                  <c:v>67.954329999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>68.633359999999996</c:v>
+                  <c:v>68.382329999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>64.044309999999996</c:v>
+                  <c:v>63.717280000000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>64.879670000000004</c:v>
+                  <c:v>64.323440000000005</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>76.658779999999993</c:v>
+                  <c:v>76.131730000000005</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>92.324070000000006</c:v>
+                  <c:v>91.444919999999996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>99.962190000000007</c:v>
+                  <c:v>100.82210000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>96.024150000000006</c:v>
+                  <c:v>96.249009999999998</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>82.639340000000004</c:v>
+                  <c:v>82.457949999999997</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>70.471239999999995</c:v>
+                  <c:v>70.536019999999994</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>64.549869999999999</c:v>
+                  <c:v>64.418450000000007</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>66.533000000000001</c:v>
+                  <c:v>66.428039999999996</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>69.717529999999996</c:v>
+                  <c:v>69.673029999999997</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>70.342169999999996</c:v>
+                  <c:v>70.210319999999996</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>65.449520000000007</c:v>
+                  <c:v>65.239890000000003</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>66.012770000000003</c:v>
+                  <c:v>65.666719999999998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>77.861329999999995</c:v>
+                  <c:v>77.410259999999994</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>93.596329999999995</c:v>
+                  <c:v>92.563180000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1595,11 +1595,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="560945072"/>
-        <c:axId val="560945632"/>
+        <c:axId val="592533760"/>
+        <c:axId val="592534320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="560945072"/>
+        <c:axId val="592533760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1616,7 +1616,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="560945632"/>
+        <c:crossAx val="592534320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1627,7 +1627,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="560945632"/>
+        <c:axId val="592534320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -1654,13 +1654,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="560945072"/>
+        <c:crossAx val="592533760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="560946192"/>
+        <c:axId val="592534880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1677,7 +1677,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="560946752"/>
+        <c:crossAx val="592535440"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1685,7 +1685,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="560946752"/>
+        <c:axId val="592535440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -1702,7 +1702,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="560946192"/>
+        <c:crossAx val="592534880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1866,7 +1866,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -1992,13 +1992,13 @@
             <v>4.0202413159999999</v>
           </cell>
           <cell r="K27">
-            <v>1.113807689999998</v>
+            <v>1.0886467939999989</v>
           </cell>
           <cell r="L27">
-            <v>-1.2102017069999995</v>
+            <v>-1.3470506469999997</v>
           </cell>
           <cell r="M27">
-            <v>0.71623274000000237</v>
+            <v>0.78627301399999894</v>
           </cell>
         </row>
         <row r="28">
@@ -2006,13 +2006,13 @@
             <v>-0.3053397259999997</v>
           </cell>
           <cell r="K28">
-            <v>0.38727145199999669</v>
+            <v>0.35220074199999729</v>
           </cell>
           <cell r="L28">
-            <v>0.12728882200000058</v>
+            <v>0.16478892900000019</v>
           </cell>
           <cell r="M28">
-            <v>0.41106942500000088</v>
+            <v>0.50100912399999942</v>
           </cell>
         </row>
         <row r="29">
@@ -2020,13 +2020,13 @@
             <v>-2.0419506849999962</v>
           </cell>
           <cell r="K29">
-            <v>-1.0390593097000007</v>
+            <v>-0.94984870790000286</v>
           </cell>
           <cell r="L29">
-            <v>1.1502755152999988</v>
+            <v>0.66563061520000133</v>
           </cell>
           <cell r="M29">
-            <v>1.5324945499997966E-2</v>
+            <v>0.33506768519999852</v>
           </cell>
         </row>
         <row r="30">
@@ -2034,13 +2034,13 @@
             <v>0.12209040999998422</v>
           </cell>
           <cell r="K30">
-            <v>-4.1866603299979488E-2</v>
+            <v>-6.4018623099983074E-2</v>
           </cell>
           <cell r="L30">
-            <v>0.23357368569999437</v>
+            <v>0.11941027079998889</v>
           </cell>
           <cell r="M30">
-            <v>0.33088319050000337</v>
+            <v>0.4164844308000113</v>
           </cell>
         </row>
         <row r="37">
@@ -2180,7 +2180,7 @@
             <v>42370</v>
           </cell>
           <cell r="C49">
-            <v>100.05019445000001</v>
+            <v>99.946452519000005</v>
           </cell>
           <cell r="D49" t="e">
             <v>#N/A</v>
@@ -2191,7 +2191,7 @@
             <v>42401</v>
           </cell>
           <cell r="C50">
-            <v>91.789118311999999</v>
+            <v>91.681842450000005</v>
           </cell>
           <cell r="D50" t="e">
             <v>#N/A</v>
@@ -2202,7 +2202,7 @@
             <v>42430</v>
           </cell>
           <cell r="C51">
-            <v>76.312709971000004</v>
+            <v>76.219419647999999</v>
           </cell>
           <cell r="D51" t="e">
             <v>#N/A</v>
@@ -2213,7 +2213,7 @@
             <v>42461</v>
           </cell>
           <cell r="C52">
-            <v>69.78135657</v>
+            <v>69.671423236999999</v>
           </cell>
           <cell r="D52" t="e">
             <v>#N/A</v>
@@ -2224,7 +2224,7 @@
             <v>42491</v>
           </cell>
           <cell r="C53">
-            <v>63.741155286999998</v>
+            <v>63.641381094000003</v>
           </cell>
           <cell r="D53" t="e">
             <v>#N/A</v>
@@ -2235,7 +2235,7 @@
             <v>42522</v>
           </cell>
           <cell r="C54">
-            <v>66.953196297000005</v>
+            <v>66.854529630000002</v>
           </cell>
           <cell r="D54" t="e">
             <v>#N/A</v>
@@ -2246,7 +2246,7 @@
             <v>42552</v>
           </cell>
           <cell r="C55">
-            <v>70.793401809000002</v>
+            <v>70.643240517999999</v>
           </cell>
           <cell r="D55" t="e">
             <v>#N/A</v>
@@ -2257,7 +2257,7 @@
             <v>42583</v>
           </cell>
           <cell r="C56">
-            <v>71.567944132999997</v>
+            <v>71.439169939999999</v>
           </cell>
           <cell r="D56" t="e">
             <v>#N/A</v>
@@ -2268,7 +2268,7 @@
             <v>42614</v>
           </cell>
           <cell r="C57">
-            <v>65.236754297000004</v>
+            <v>65.039954296999994</v>
           </cell>
           <cell r="D57" t="e">
             <v>#N/A</v>
@@ -2279,7 +2279,7 @@
             <v>42644</v>
           </cell>
           <cell r="C58">
-            <v>62.220527742000002</v>
+            <v>62.130269679999998</v>
           </cell>
           <cell r="D58" t="e">
             <v>#N/A</v>
@@ -2290,7 +2290,7 @@
             <v>42675</v>
           </cell>
           <cell r="C59">
-            <v>71.705821999999998</v>
+            <v>72.063321729999998</v>
           </cell>
           <cell r="D59" t="e">
             <v>#N/A</v>
@@ -2301,21 +2301,21 @@
             <v>42705</v>
           </cell>
           <cell r="C60">
-            <v>90.951402999999999</v>
-          </cell>
-          <cell r="D60">
-            <v>90.951402999999999</v>
+            <v>91.844715300000004</v>
+          </cell>
+          <cell r="D60" t="e">
+            <v>#N/A</v>
           </cell>
         </row>
         <row r="61">
           <cell r="B61">
             <v>42736</v>
           </cell>
-          <cell r="C61" t="e">
-            <v>#N/A</v>
+          <cell r="C61">
+            <v>93.137118299999997</v>
           </cell>
           <cell r="D61">
-            <v>98.575339999999997</v>
+            <v>93.137118299999997</v>
           </cell>
         </row>
         <row r="62">
@@ -2326,7 +2326,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D62">
-            <v>94.373379999999997</v>
+            <v>94.974149999999995</v>
           </cell>
         </row>
         <row r="63">
@@ -2337,7 +2337,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D63">
-            <v>80.525949999999995</v>
+            <v>80.661010000000005</v>
           </cell>
         </row>
         <row r="64">
@@ -2348,7 +2348,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D64">
-            <v>68.941739999999996</v>
+            <v>68.803929999999994</v>
           </cell>
         </row>
         <row r="65">
@@ -2359,7 +2359,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D65">
-            <v>63.082230000000003</v>
+            <v>62.862130000000001</v>
           </cell>
         </row>
         <row r="66">
@@ -2370,7 +2370,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D66">
-            <v>65.191239999999993</v>
+            <v>64.960009999999997</v>
           </cell>
         </row>
         <row r="67">
@@ -2381,7 +2381,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D67">
-            <v>68.243480000000005</v>
+            <v>67.954329999999999</v>
           </cell>
         </row>
         <row r="68">
@@ -2392,7 +2392,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D68">
-            <v>68.633359999999996</v>
+            <v>68.382329999999996</v>
           </cell>
         </row>
         <row r="69">
@@ -2403,7 +2403,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D69">
-            <v>64.044309999999996</v>
+            <v>63.717280000000002</v>
           </cell>
         </row>
         <row r="70">
@@ -2414,7 +2414,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D70">
-            <v>64.879670000000004</v>
+            <v>64.323440000000005</v>
           </cell>
         </row>
         <row r="71">
@@ -2425,7 +2425,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D71">
-            <v>76.658779999999993</v>
+            <v>76.131730000000005</v>
           </cell>
         </row>
         <row r="72">
@@ -2436,7 +2436,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D72">
-            <v>92.324070000000006</v>
+            <v>91.444919999999996</v>
           </cell>
         </row>
         <row r="73">
@@ -2447,7 +2447,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D73">
-            <v>99.962190000000007</v>
+            <v>100.82210000000001</v>
           </cell>
         </row>
         <row r="74">
@@ -2458,7 +2458,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D74">
-            <v>96.024150000000006</v>
+            <v>96.249009999999998</v>
           </cell>
         </row>
         <row r="75">
@@ -2469,7 +2469,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D75">
-            <v>82.639340000000004</v>
+            <v>82.457949999999997</v>
           </cell>
         </row>
         <row r="76">
@@ -2480,7 +2480,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D76">
-            <v>70.471239999999995</v>
+            <v>70.536019999999994</v>
           </cell>
         </row>
         <row r="77">
@@ -2491,7 +2491,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D77">
-            <v>64.549869999999999</v>
+            <v>64.418450000000007</v>
           </cell>
         </row>
         <row r="78">
@@ -2502,7 +2502,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D78">
-            <v>66.533000000000001</v>
+            <v>66.428039999999996</v>
           </cell>
         </row>
         <row r="79">
@@ -2513,7 +2513,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D79">
-            <v>69.717529999999996</v>
+            <v>69.673029999999997</v>
           </cell>
         </row>
         <row r="80">
@@ -2524,7 +2524,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D80">
-            <v>70.342169999999996</v>
+            <v>70.210319999999996</v>
           </cell>
         </row>
         <row r="81">
@@ -2535,7 +2535,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D81">
-            <v>65.449520000000007</v>
+            <v>65.239890000000003</v>
           </cell>
         </row>
         <row r="82">
@@ -2546,7 +2546,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D82">
-            <v>66.012770000000003</v>
+            <v>65.666719999999998</v>
           </cell>
         </row>
         <row r="83">
@@ -2557,7 +2557,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D83">
-            <v>77.861329999999995</v>
+            <v>77.410259999999994</v>
           </cell>
         </row>
         <row r="84">
@@ -2568,7 +2568,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D84">
-            <v>93.596329999999995</v>
+            <v>92.563180000000003</v>
           </cell>
         </row>
       </sheetData>
@@ -2932,13 +2932,13 @@
         <v>26.338000428000001</v>
       </c>
       <c r="F27" s="10">
-        <v>27.451808117999999</v>
+        <v>27.426647222</v>
       </c>
       <c r="G27" s="10">
-        <v>26.241606410999999</v>
+        <v>26.079596575</v>
       </c>
       <c r="H27" s="10">
-        <v>26.957839151000002</v>
+        <v>26.865869588999999</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="12">
@@ -2947,15 +2947,15 @@
       </c>
       <c r="K27" s="12">
         <f t="shared" si="0"/>
-        <v>1.113807689999998</v>
+        <v>1.0886467939999989</v>
       </c>
       <c r="L27" s="12">
         <f t="shared" si="0"/>
-        <v>-1.2102017069999995</v>
+        <v>-1.3470506469999997</v>
       </c>
       <c r="M27" s="12">
         <f t="shared" si="0"/>
-        <v>0.71623274000000237</v>
+        <v>0.78627301399999894</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -2969,13 +2969,13 @@
         <v>20.642698630000002</v>
       </c>
       <c r="F28" s="10">
-        <v>21.029970081999998</v>
+        <v>20.994899371999999</v>
       </c>
       <c r="G28" s="10">
-        <v>21.157258903999999</v>
+        <v>21.159688300999999</v>
       </c>
       <c r="H28" s="10">
-        <v>21.568328329</v>
+        <v>21.660697424999999</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="12">
@@ -2984,15 +2984,15 @@
       </c>
       <c r="K28" s="12">
         <f t="shared" si="0"/>
-        <v>0.38727145199999669</v>
+        <v>0.35220074199999729</v>
       </c>
       <c r="L28" s="12">
         <f t="shared" si="0"/>
-        <v>0.12728882200000058</v>
+        <v>0.16478892900000019</v>
       </c>
       <c r="M28" s="12">
         <f t="shared" si="0"/>
-        <v>0.41106942500000088</v>
+        <v>0.50100912399999942</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
@@ -3006,13 +3006,13 @@
         <v>21.393027396900003</v>
       </c>
       <c r="F29" s="10">
-        <v>20.353968087200002</v>
+        <v>20.443178689</v>
       </c>
       <c r="G29" s="10">
-        <v>21.504243602500001</v>
+        <v>21.108809304200001</v>
       </c>
       <c r="H29" s="10">
-        <v>21.519568547999999</v>
+        <v>21.4438769894</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="12">
@@ -3021,15 +3021,15 @@
       </c>
       <c r="K29" s="12">
         <f t="shared" si="0"/>
-        <v>-1.0390593097000007</v>
+        <v>-0.94984870790000286</v>
       </c>
       <c r="L29" s="12">
         <f t="shared" si="0"/>
-        <v>1.1502755152999988</v>
+        <v>0.66563061520000133</v>
       </c>
       <c r="M29" s="12">
         <f t="shared" si="0"/>
-        <v>1.5324945499997966E-2</v>
+        <v>0.33506768519999852</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
@@ -3046,15 +3046,15 @@
       </c>
       <c r="F30" s="10">
         <f>F31-SUM(F27:F29)</f>
-        <v>6.2379032598000066</v>
+        <v>6.215751240000003</v>
       </c>
       <c r="G30" s="10">
         <f>G31-SUM(G27:G29)</f>
-        <v>6.471476945500001</v>
+        <v>6.3351615107999919</v>
       </c>
       <c r="H30" s="10">
         <f>H31-SUM(H27:H29)</f>
-        <v>6.8023601360000043</v>
+        <v>6.7516459416000032</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="12">
@@ -3063,15 +3063,15 @@
       </c>
       <c r="K30" s="12">
         <f t="shared" si="0"/>
-        <v>-4.1866603299979488E-2</v>
+        <v>-6.4018623099983074E-2</v>
       </c>
       <c r="L30" s="12">
         <f t="shared" si="0"/>
-        <v>0.23357368569999437</v>
+        <v>0.11941027079998889</v>
       </c>
       <c r="M30" s="12">
         <f t="shared" si="0"/>
-        <v>0.33088319050000337</v>
+        <v>0.4164844308000113</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
@@ -3086,13 +3086,13 @@
         <v>74.653496317999995</v>
       </c>
       <c r="F31" s="14">
-        <v>75.073649547000002</v>
+        <v>75.080476523000002</v>
       </c>
       <c r="G31" s="14">
-        <v>75.374585862999993</v>
+        <v>74.683255690999999</v>
       </c>
       <c r="H31" s="14">
-        <v>76.848096163999998</v>
+        <v>76.722089944999993</v>
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="16">
@@ -3101,15 +3101,15 @@
       </c>
       <c r="K31" s="16">
         <f t="shared" si="0"/>
-        <v>0.4201532290000074</v>
+        <v>0.42698020500000666</v>
       </c>
       <c r="L31" s="16">
         <f t="shared" si="0"/>
-        <v>0.30093631599999071</v>
+        <v>-0.39722083200000213</v>
       </c>
       <c r="M31" s="16">
         <f t="shared" si="0"/>
-        <v>1.4735103010000046</v>
+        <v>2.038834253999994</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
@@ -3281,7 +3281,7 @@
         <v>42370</v>
       </c>
       <c r="C49" s="24">
-        <v>100.05019445000001</v>
+        <v>99.946452519000005</v>
       </c>
       <c r="D49" s="24" t="e">
         <v>#N/A</v>
@@ -3292,7 +3292,7 @@
         <v>42401</v>
       </c>
       <c r="C50" s="24">
-        <v>91.789118311999999</v>
+        <v>91.681842450000005</v>
       </c>
       <c r="D50" s="24" t="e">
         <v>#N/A</v>
@@ -3303,7 +3303,7 @@
         <v>42430</v>
       </c>
       <c r="C51" s="24">
-        <v>76.312709971000004</v>
+        <v>76.219419647999999</v>
       </c>
       <c r="D51" s="24" t="e">
         <v>#N/A</v>
@@ -3314,7 +3314,7 @@
         <v>42461</v>
       </c>
       <c r="C52" s="24">
-        <v>69.78135657</v>
+        <v>69.671423236999999</v>
       </c>
       <c r="D52" s="24" t="e">
         <v>#N/A</v>
@@ -3325,7 +3325,7 @@
         <v>42491</v>
       </c>
       <c r="C53" s="24">
-        <v>63.741155286999998</v>
+        <v>63.641381094000003</v>
       </c>
       <c r="D53" s="24" t="e">
         <v>#N/A</v>
@@ -3336,7 +3336,7 @@
         <v>42522</v>
       </c>
       <c r="C54" s="24">
-        <v>66.953196297000005</v>
+        <v>66.854529630000002</v>
       </c>
       <c r="D54" s="24" t="e">
         <v>#N/A</v>
@@ -3347,7 +3347,7 @@
         <v>42552</v>
       </c>
       <c r="C55" s="24">
-        <v>70.793401809000002</v>
+        <v>70.643240517999999</v>
       </c>
       <c r="D55" s="24" t="e">
         <v>#N/A</v>
@@ -3358,7 +3358,7 @@
         <v>42583</v>
       </c>
       <c r="C56" s="24">
-        <v>71.567944132999997</v>
+        <v>71.439169939999999</v>
       </c>
       <c r="D56" s="24" t="e">
         <v>#N/A</v>
@@ -3369,7 +3369,7 @@
         <v>42614</v>
       </c>
       <c r="C57" s="24">
-        <v>65.236754297000004</v>
+        <v>65.039954296999994</v>
       </c>
       <c r="D57" s="24" t="e">
         <v>#N/A</v>
@@ -3380,7 +3380,7 @@
         <v>42644</v>
       </c>
       <c r="C58" s="24">
-        <v>62.220527742000002</v>
+        <v>62.130269679999998</v>
       </c>
       <c r="D58" s="24" t="e">
         <v>#N/A</v>
@@ -3391,7 +3391,7 @@
         <v>42675</v>
       </c>
       <c r="C59" s="24">
-        <v>71.705821999999998</v>
+        <v>72.063321729999998</v>
       </c>
       <c r="D59" s="24" t="e">
         <v>#N/A</v>
@@ -3402,21 +3402,21 @@
         <v>42705</v>
       </c>
       <c r="C60" s="24">
-        <v>90.951402999999999</v>
-      </c>
-      <c r="D60" s="24">
-        <v>90.951402999999999</v>
+        <v>91.844715300000004</v>
+      </c>
+      <c r="D60" s="24" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="22">
         <v>42736</v>
       </c>
-      <c r="C61" s="24" t="e">
-        <v>#N/A</v>
+      <c r="C61" s="24">
+        <v>93.137118299999997</v>
       </c>
       <c r="D61" s="24">
-        <v>98.575339999999997</v>
+        <v>93.137118299999997</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
@@ -3427,7 +3427,7 @@
         <v>#N/A</v>
       </c>
       <c r="D62" s="24">
-        <v>94.373379999999997</v>
+        <v>94.974149999999995</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
@@ -3438,7 +3438,7 @@
         <v>#N/A</v>
       </c>
       <c r="D63" s="24">
-        <v>80.525949999999995</v>
+        <v>80.661010000000005</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
@@ -3449,7 +3449,7 @@
         <v>#N/A</v>
       </c>
       <c r="D64" s="24">
-        <v>68.941739999999996</v>
+        <v>68.803929999999994</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
@@ -3460,7 +3460,7 @@
         <v>#N/A</v>
       </c>
       <c r="D65" s="24">
-        <v>63.082230000000003</v>
+        <v>62.862130000000001</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
@@ -3471,7 +3471,7 @@
         <v>#N/A</v>
       </c>
       <c r="D66" s="24">
-        <v>65.191239999999993</v>
+        <v>64.960009999999997</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
@@ -3482,7 +3482,7 @@
         <v>#N/A</v>
       </c>
       <c r="D67" s="24">
-        <v>68.243480000000005</v>
+        <v>67.954329999999999</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
@@ -3493,7 +3493,7 @@
         <v>#N/A</v>
       </c>
       <c r="D68" s="24">
-        <v>68.633359999999996</v>
+        <v>68.382329999999996</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
@@ -3504,7 +3504,7 @@
         <v>#N/A</v>
       </c>
       <c r="D69" s="24">
-        <v>64.044309999999996</v>
+        <v>63.717280000000002</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
@@ -3515,7 +3515,7 @@
         <v>#N/A</v>
       </c>
       <c r="D70" s="24">
-        <v>64.879670000000004</v>
+        <v>64.323440000000005</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
@@ -3526,7 +3526,7 @@
         <v>#N/A</v>
       </c>
       <c r="D71" s="24">
-        <v>76.658779999999993</v>
+        <v>76.131730000000005</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
@@ -3537,7 +3537,7 @@
         <v>#N/A</v>
       </c>
       <c r="D72" s="24">
-        <v>92.324070000000006</v>
+        <v>91.444919999999996</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
@@ -3548,7 +3548,7 @@
         <v>#N/A</v>
       </c>
       <c r="D73" s="24">
-        <v>99.962190000000007</v>
+        <v>100.82210000000001</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
@@ -3559,7 +3559,7 @@
         <v>#N/A</v>
       </c>
       <c r="D74" s="24">
-        <v>96.024150000000006</v>
+        <v>96.249009999999998</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
@@ -3570,7 +3570,7 @@
         <v>#N/A</v>
       </c>
       <c r="D75" s="24">
-        <v>82.639340000000004</v>
+        <v>82.457949999999997</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
@@ -3581,7 +3581,7 @@
         <v>#N/A</v>
       </c>
       <c r="D76" s="24">
-        <v>70.471239999999995</v>
+        <v>70.536019999999994</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
@@ -3592,7 +3592,7 @@
         <v>#N/A</v>
       </c>
       <c r="D77" s="24">
-        <v>64.549869999999999</v>
+        <v>64.418450000000007</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
@@ -3603,7 +3603,7 @@
         <v>#N/A</v>
       </c>
       <c r="D78" s="24">
-        <v>66.533000000000001</v>
+        <v>66.428039999999996</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
@@ -3614,7 +3614,7 @@
         <v>#N/A</v>
       </c>
       <c r="D79" s="24">
-        <v>69.717529999999996</v>
+        <v>69.673029999999997</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
@@ -3625,7 +3625,7 @@
         <v>#N/A</v>
       </c>
       <c r="D80" s="24">
-        <v>70.342169999999996</v>
+        <v>70.210319999999996</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
@@ -3636,7 +3636,7 @@
         <v>#N/A</v>
       </c>
       <c r="D81" s="24">
-        <v>65.449520000000007</v>
+        <v>65.239890000000003</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
@@ -3647,7 +3647,7 @@
         <v>#N/A</v>
       </c>
       <c r="D82" s="24">
-        <v>66.012770000000003</v>
+        <v>65.666719999999998</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
@@ -3658,7 +3658,7 @@
         <v>#N/A</v>
       </c>
       <c r="D83" s="24">
-        <v>77.861329999999995</v>
+        <v>77.410259999999994</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
@@ -3669,7 +3669,7 @@
         <v>#N/A</v>
       </c>
       <c r="D84" s="14">
-        <v>93.596329999999995</v>
+        <v>92.563180000000003</v>
       </c>
     </row>
   </sheetData>
